--- a/KetQuaTest_SizeDao.xlsx
+++ b/KetQuaTest_SizeDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -41,13 +41,13 @@
     <t>Get tất cả Size</t>
   </si>
   <si>
-    <t>getAllSizes()</t>
-  </si>
-  <si>
     <t>Không tham số</t>
   </si>
   <si>
-    <t>List &gt; 0</t>
+    <t>Insert 2 items (S1, M2) -&gt; getAllSizes()</t>
+  </si>
+  <si>
+    <t>List chứa 2 items vừa thêm</t>
   </si>
   <si>
     <t>OK</t>
@@ -62,12 +62,12 @@
     <t>Update Size</t>
   </si>
   <si>
+    <t>New label='UP1'</t>
+  </si>
+  <si>
     <t>Insert tạm -&gt; Update label</t>
   </si>
   <si>
-    <t>New label='Updated Size'</t>
-  </si>
-  <si>
     <t>Update thành công</t>
   </si>
   <si>
@@ -77,28 +77,28 @@
     <t>Tìm theo ID</t>
   </si>
   <si>
+    <t>ID tạo tạm</t>
+  </si>
+  <si>
     <t>Insert tạm -&gt; findById</t>
   </si>
   <si>
-    <t>ID tạo tạm</t>
-  </si>
-  <si>
     <t>Return đúng Size</t>
   </si>
   <si>
     <t>SIZE_DAO_01</t>
   </si>
   <si>
-    <t>Thêm Size</t>
-  </si>
-  <si>
-    <t>Insert size_label='Test Size X'</t>
-  </si>
-  <si>
-    <t>Label='Test Size X'</t>
-  </si>
-  <si>
-    <t>Return true</t>
+    <t>Thêm Size mới</t>
+  </si>
+  <si>
+    <t>Label='TXX'</t>
+  </si>
+  <si>
+    <t>Insert size_label='TXX'</t>
+  </si>
+  <si>
+    <t>Return true &amp; ID &gt; 0</t>
   </si>
   <si>
     <t>SIZE_DAO_05</t>
@@ -107,13 +107,28 @@
     <t>Xóa Size</t>
   </si>
   <si>
+    <t>Temp Size Id</t>
+  </si>
+  <si>
     <t>Insert -&gt; Delete -&gt; find lại</t>
   </si>
   <si>
-    <t>Temp Size Id</t>
-  </si>
-  <si>
     <t>findById trả null</t>
+  </si>
+  <si>
+    <t>SIZE_DAO_06</t>
+  </si>
+  <si>
+    <t>Tìm ID không tồn tại</t>
+  </si>
+  <si>
+    <t>ID=999999</t>
+  </si>
+  <si>
+    <t>findById(999999)</t>
+  </si>
+  <si>
+    <t>Return null</t>
   </si>
 </sst>
 </file>
@@ -191,17 +206,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.74609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.66796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="34.859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -344,6 +359,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
